--- a/2020/May/Reqisition of Tulip-2/May/10.05.2020 Requisition of Tulip-2.xlsx
+++ b/2020/May/Reqisition of Tulip-2/May/10.05.2020 Requisition of Tulip-2.xlsx
@@ -450,7 +450,7 @@
     <t>D72</t>
   </si>
   <si>
-    <t>07.05.2020</t>
+    <t>10.05.2020</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1097,7 @@
       <pane xSplit="4" ySplit="14" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="B102" sqref="B102:D102"/>
+      <selection pane="bottomRight" activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1618,17 +1618,19 @@
       <c r="BU9" s="19"/>
       <c r="BV9" s="19"/>
     </row>
-    <row r="10" spans="1:74" ht="15" hidden="1">
+    <row r="10" spans="1:74" ht="15">
       <c r="A10" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B10" s="6">
         <v>721.8</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="8">
+        <v>20</v>
+      </c>
       <c r="D10" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14436</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>95</v>
@@ -1771,11 +1773,11 @@
         <v>779.96</v>
       </c>
       <c r="C13" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D13" s="7">
         <f>C13*B13</f>
-        <v>38998</v>
+        <v>31198.400000000001</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>95</v>
@@ -1920,11 +1922,11 @@
         <v>824.06</v>
       </c>
       <c r="C18" s="5">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D18" s="7">
         <f>C18*B18</f>
-        <v>49443.6</v>
+        <v>41203</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>95</v>
@@ -2002,19 +2004,17 @@
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
     </row>
-    <row r="20" spans="1:74" s="3" customFormat="1" ht="15">
+    <row r="20" spans="1:74" s="3" customFormat="1" ht="15" hidden="1">
       <c r="A20" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B20" s="6">
         <v>858.14</v>
       </c>
-      <c r="C20" s="5">
-        <v>5</v>
-      </c>
+      <c r="C20" s="5"/>
       <c r="D20" s="9">
         <f t="shared" si="0"/>
-        <v>4290.7</v>
+        <v>0</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>89</v>
@@ -3017,11 +3017,11 @@
         <v>6306.98</v>
       </c>
       <c r="C46" s="5">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D46" s="7">
         <f t="shared" si="0"/>
-        <v>94604.7</v>
+        <v>69376.78</v>
       </c>
       <c r="E46" s="25" t="s">
         <v>125</v>
@@ -3147,17 +3147,19 @@
       </c>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="1:33" customFormat="1" ht="15" hidden="1">
+    <row r="53" spans="1:33" customFormat="1" ht="15">
       <c r="A53" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B53" s="6">
         <v>1042.5999999999999</v>
       </c>
-      <c r="C53" s="5"/>
+      <c r="C53" s="5">
+        <v>60</v>
+      </c>
       <c r="D53" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>62555.999999999993</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>89</v>
@@ -4249,11 +4251,11 @@
         <v>1072.675</v>
       </c>
       <c r="C94" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D94" s="7">
         <f t="shared" si="2"/>
-        <v>53633.75</v>
+        <v>42907</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>89</v>
@@ -4317,11 +4319,11 @@
         <v>7165.02</v>
       </c>
       <c r="C95" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D95" s="7">
         <f t="shared" si="2"/>
-        <v>107475.3</v>
+        <v>71650.200000000012</v>
       </c>
       <c r="E95" s="25" t="s">
         <v>126</v>
@@ -4476,11 +4478,11 @@
       <c r="B100" s="42"/>
       <c r="C100" s="27">
         <f>SUBTOTAL(9,C7:C99)</f>
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="D100" s="12">
         <f>SUBTOTAL(9,D7:D99)</f>
-        <v>431132.05</v>
+        <v>416013.38</v>
       </c>
       <c r="E100" s="27"/>
       <c r="F100" s="32"/>
@@ -4710,7 +4712,7 @@
         <v>21</v>
       </c>
       <c r="C105" s="15">
-        <v>500000</v>
+        <v>400000</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>129</v>
@@ -4864,7 +4866,7 @@
       </c>
       <c r="C109" s="16">
         <f>SUBTOTAL(9,C104:C108)</f>
-        <v>500000</v>
+        <v>400000</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="17"/>
